--- a/_data/LINKUSDT_2h.xlsx
+++ b/_data/LINKUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1286 @@
         <v>18467.98</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>11.03</v>
+      </c>
+      <c r="C1169">
+        <v>11.17</v>
+      </c>
+      <c r="D1169">
+        <v>10.95</v>
+      </c>
+      <c r="E1169">
+        <v>11.06</v>
+      </c>
+      <c r="F1169">
+        <v>142813.45</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>11.07</v>
+      </c>
+      <c r="C1170">
+        <v>11.12</v>
+      </c>
+      <c r="D1170">
+        <v>10.51</v>
+      </c>
+      <c r="E1170">
+        <v>10.54</v>
+      </c>
+      <c r="F1170">
+        <v>407614.3</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>10.54</v>
+      </c>
+      <c r="C1171">
+        <v>10.86</v>
+      </c>
+      <c r="D1171">
+        <v>10.5</v>
+      </c>
+      <c r="E1171">
+        <v>10.82</v>
+      </c>
+      <c r="F1171">
+        <v>218387.27</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>10.82</v>
+      </c>
+      <c r="C1172">
+        <v>11.11</v>
+      </c>
+      <c r="D1172">
+        <v>10.81</v>
+      </c>
+      <c r="E1172">
+        <v>11</v>
+      </c>
+      <c r="F1172">
+        <v>149530.47</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>10.99</v>
+      </c>
+      <c r="C1173">
+        <v>11.08</v>
+      </c>
+      <c r="D1173">
+        <v>10.96</v>
+      </c>
+      <c r="E1173">
+        <v>11.02</v>
+      </c>
+      <c r="F1173">
+        <v>81317.82000000001</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>11.03</v>
+      </c>
+      <c r="C1174">
+        <v>11.14</v>
+      </c>
+      <c r="D1174">
+        <v>11.02</v>
+      </c>
+      <c r="E1174">
+        <v>11.11</v>
+      </c>
+      <c r="F1174">
+        <v>81950.06</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>11.12</v>
+      </c>
+      <c r="C1175">
+        <v>11.18</v>
+      </c>
+      <c r="D1175">
+        <v>11.09</v>
+      </c>
+      <c r="E1175">
+        <v>11.11</v>
+      </c>
+      <c r="F1175">
+        <v>85481.49000000001</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>11.1</v>
+      </c>
+      <c r="C1176">
+        <v>11.14</v>
+      </c>
+      <c r="D1176">
+        <v>11.07</v>
+      </c>
+      <c r="E1176">
+        <v>11.11</v>
+      </c>
+      <c r="F1176">
+        <v>40008.88</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>11.12</v>
+      </c>
+      <c r="C1177">
+        <v>11.18</v>
+      </c>
+      <c r="D1177">
+        <v>11.1</v>
+      </c>
+      <c r="E1177">
+        <v>11.13</v>
+      </c>
+      <c r="F1177">
+        <v>56387.84</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>11.14</v>
+      </c>
+      <c r="C1178">
+        <v>11.14</v>
+      </c>
+      <c r="D1178">
+        <v>11.09</v>
+      </c>
+      <c r="E1178">
+        <v>11.12</v>
+      </c>
+      <c r="F1178">
+        <v>30943.54</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>11.13</v>
+      </c>
+      <c r="C1179">
+        <v>11.16</v>
+      </c>
+      <c r="D1179">
+        <v>11.03</v>
+      </c>
+      <c r="E1179">
+        <v>11.06</v>
+      </c>
+      <c r="F1179">
+        <v>77054.12</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>11.07</v>
+      </c>
+      <c r="C1180">
+        <v>11.2</v>
+      </c>
+      <c r="D1180">
+        <v>11.05</v>
+      </c>
+      <c r="E1180">
+        <v>11.15</v>
+      </c>
+      <c r="F1180">
+        <v>81948.03</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>11.14</v>
+      </c>
+      <c r="C1181">
+        <v>11.21</v>
+      </c>
+      <c r="D1181">
+        <v>11.08</v>
+      </c>
+      <c r="E1181">
+        <v>11.08</v>
+      </c>
+      <c r="F1181">
+        <v>68943.63</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>11.09</v>
+      </c>
+      <c r="C1182">
+        <v>11.12</v>
+      </c>
+      <c r="D1182">
+        <v>11.03</v>
+      </c>
+      <c r="E1182">
+        <v>11.09</v>
+      </c>
+      <c r="F1182">
+        <v>62844.85</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>11.09</v>
+      </c>
+      <c r="C1183">
+        <v>11.11</v>
+      </c>
+      <c r="D1183">
+        <v>10.93</v>
+      </c>
+      <c r="E1183">
+        <v>10.99</v>
+      </c>
+      <c r="F1183">
+        <v>106138.48</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>10.99</v>
+      </c>
+      <c r="C1184">
+        <v>11.06</v>
+      </c>
+      <c r="D1184">
+        <v>10.98</v>
+      </c>
+      <c r="E1184">
+        <v>11.06</v>
+      </c>
+      <c r="F1184">
+        <v>14887.74</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>11.02</v>
+      </c>
+      <c r="C1185">
+        <v>11.06</v>
+      </c>
+      <c r="D1185">
+        <v>10.99</v>
+      </c>
+      <c r="E1185">
+        <v>11.06</v>
+      </c>
+      <c r="F1185">
+        <v>28981.75</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>11.07</v>
+      </c>
+      <c r="C1186">
+        <v>11.08</v>
+      </c>
+      <c r="D1186">
+        <v>11</v>
+      </c>
+      <c r="E1186">
+        <v>11.02</v>
+      </c>
+      <c r="F1186">
+        <v>40196.9</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>11.02</v>
+      </c>
+      <c r="C1187">
+        <v>11.02</v>
+      </c>
+      <c r="D1187">
+        <v>10.9</v>
+      </c>
+      <c r="E1187">
+        <v>10.91</v>
+      </c>
+      <c r="F1187">
+        <v>64567.54</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>10.9</v>
+      </c>
+      <c r="C1188">
+        <v>10.98</v>
+      </c>
+      <c r="D1188">
+        <v>10.83</v>
+      </c>
+      <c r="E1188">
+        <v>10.94</v>
+      </c>
+      <c r="F1188">
+        <v>100645.15</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>10.94</v>
+      </c>
+      <c r="C1189">
+        <v>10.97</v>
+      </c>
+      <c r="D1189">
+        <v>10.78</v>
+      </c>
+      <c r="E1189">
+        <v>10.8</v>
+      </c>
+      <c r="F1189">
+        <v>105162.46</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>10.81</v>
+      </c>
+      <c r="C1190">
+        <v>10.9</v>
+      </c>
+      <c r="D1190">
+        <v>10.79</v>
+      </c>
+      <c r="E1190">
+        <v>10.88</v>
+      </c>
+      <c r="F1190">
+        <v>81507.22</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>10.88</v>
+      </c>
+      <c r="C1191">
+        <v>10.9</v>
+      </c>
+      <c r="D1191">
+        <v>10.82</v>
+      </c>
+      <c r="E1191">
+        <v>10.85</v>
+      </c>
+      <c r="F1191">
+        <v>41717.51</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>10.85</v>
+      </c>
+      <c r="C1192">
+        <v>10.85</v>
+      </c>
+      <c r="D1192">
+        <v>10.81</v>
+      </c>
+      <c r="E1192">
+        <v>10.81</v>
+      </c>
+      <c r="F1192">
+        <v>8198.959999999999</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>10.8</v>
+      </c>
+      <c r="C1193">
+        <v>10.82</v>
+      </c>
+      <c r="D1193">
+        <v>10.61</v>
+      </c>
+      <c r="E1193">
+        <v>10.72</v>
+      </c>
+      <c r="F1193">
+        <v>138340.44</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>10.71</v>
+      </c>
+      <c r="C1194">
+        <v>10.75</v>
+      </c>
+      <c r="D1194">
+        <v>10.52</v>
+      </c>
+      <c r="E1194">
+        <v>10.7</v>
+      </c>
+      <c r="F1194">
+        <v>210150.84</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>10.7</v>
+      </c>
+      <c r="C1195">
+        <v>10.74</v>
+      </c>
+      <c r="D1195">
+        <v>10.52</v>
+      </c>
+      <c r="E1195">
+        <v>10.6</v>
+      </c>
+      <c r="F1195">
+        <v>142488.58</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>10.61</v>
+      </c>
+      <c r="C1196">
+        <v>10.77</v>
+      </c>
+      <c r="D1196">
+        <v>10.58</v>
+      </c>
+      <c r="E1196">
+        <v>10.71</v>
+      </c>
+      <c r="F1196">
+        <v>114132.14</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>10.71</v>
+      </c>
+      <c r="C1197">
+        <v>10.77</v>
+      </c>
+      <c r="D1197">
+        <v>10.55</v>
+      </c>
+      <c r="E1197">
+        <v>10.62</v>
+      </c>
+      <c r="F1197">
+        <v>106420.51</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>10.62</v>
+      </c>
+      <c r="C1198">
+        <v>10.63</v>
+      </c>
+      <c r="D1198">
+        <v>10.23</v>
+      </c>
+      <c r="E1198">
+        <v>10.37</v>
+      </c>
+      <c r="F1198">
+        <v>280412.5</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>10.37</v>
+      </c>
+      <c r="C1199">
+        <v>10.49</v>
+      </c>
+      <c r="D1199">
+        <v>10.32</v>
+      </c>
+      <c r="E1199">
+        <v>10.44</v>
+      </c>
+      <c r="F1199">
+        <v>136245.87</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>10.43</v>
+      </c>
+      <c r="C1200">
+        <v>10.51</v>
+      </c>
+      <c r="D1200">
+        <v>10.4</v>
+      </c>
+      <c r="E1200">
+        <v>10.48</v>
+      </c>
+      <c r="F1200">
+        <v>54566.67</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>10.48</v>
+      </c>
+      <c r="C1201">
+        <v>10.52</v>
+      </c>
+      <c r="D1201">
+        <v>10.34</v>
+      </c>
+      <c r="E1201">
+        <v>10.48</v>
+      </c>
+      <c r="F1201">
+        <v>95180.46000000001</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>10.49</v>
+      </c>
+      <c r="C1202">
+        <v>10.52</v>
+      </c>
+      <c r="D1202">
+        <v>10.33</v>
+      </c>
+      <c r="E1202">
+        <v>10.38</v>
+      </c>
+      <c r="F1202">
+        <v>76160.02</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>10.38</v>
+      </c>
+      <c r="C1203">
+        <v>10.7</v>
+      </c>
+      <c r="D1203">
+        <v>10.37</v>
+      </c>
+      <c r="E1203">
+        <v>10.68</v>
+      </c>
+      <c r="F1203">
+        <v>148621.65</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>10.68</v>
+      </c>
+      <c r="C1204">
+        <v>10.79</v>
+      </c>
+      <c r="D1204">
+        <v>10.67</v>
+      </c>
+      <c r="E1204">
+        <v>10.75</v>
+      </c>
+      <c r="F1204">
+        <v>146799.14</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>10.75</v>
+      </c>
+      <c r="C1205">
+        <v>10.76</v>
+      </c>
+      <c r="D1205">
+        <v>10.65</v>
+      </c>
+      <c r="E1205">
+        <v>10.68</v>
+      </c>
+      <c r="F1205">
+        <v>113864.09</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>10.67</v>
+      </c>
+      <c r="C1206">
+        <v>10.79</v>
+      </c>
+      <c r="D1206">
+        <v>10.59</v>
+      </c>
+      <c r="E1206">
+        <v>10.66</v>
+      </c>
+      <c r="F1206">
+        <v>194184.65</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>10.66</v>
+      </c>
+      <c r="C1207">
+        <v>10.69</v>
+      </c>
+      <c r="D1207">
+        <v>10.55</v>
+      </c>
+      <c r="E1207">
+        <v>10.67</v>
+      </c>
+      <c r="F1207">
+        <v>128867.89</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>10.68</v>
+      </c>
+      <c r="C1208">
+        <v>10.71</v>
+      </c>
+      <c r="D1208">
+        <v>10.62</v>
+      </c>
+      <c r="E1208">
+        <v>10.66</v>
+      </c>
+      <c r="F1208">
+        <v>61154.97</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>10.67</v>
+      </c>
+      <c r="C1209">
+        <v>10.84</v>
+      </c>
+      <c r="D1209">
+        <v>10.64</v>
+      </c>
+      <c r="E1209">
+        <v>10.77</v>
+      </c>
+      <c r="F1209">
+        <v>113839.63</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>10.78</v>
+      </c>
+      <c r="C1210">
+        <v>10.8</v>
+      </c>
+      <c r="D1210">
+        <v>10.73</v>
+      </c>
+      <c r="E1210">
+        <v>10.77</v>
+      </c>
+      <c r="F1210">
+        <v>45473.72</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>10.77</v>
+      </c>
+      <c r="C1211">
+        <v>10.82</v>
+      </c>
+      <c r="D1211">
+        <v>10.73</v>
+      </c>
+      <c r="E1211">
+        <v>10.8</v>
+      </c>
+      <c r="F1211">
+        <v>70268.86</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>10.79</v>
+      </c>
+      <c r="C1212">
+        <v>10.88</v>
+      </c>
+      <c r="D1212">
+        <v>10.69</v>
+      </c>
+      <c r="E1212">
+        <v>10.7</v>
+      </c>
+      <c r="F1212">
+        <v>88114.36</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>10.7</v>
+      </c>
+      <c r="C1213">
+        <v>10.73</v>
+      </c>
+      <c r="D1213">
+        <v>10.65</v>
+      </c>
+      <c r="E1213">
+        <v>10.71</v>
+      </c>
+      <c r="F1213">
+        <v>77782.00999999999</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>10.7</v>
+      </c>
+      <c r="C1214">
+        <v>10.71</v>
+      </c>
+      <c r="D1214">
+        <v>10.61</v>
+      </c>
+      <c r="E1214">
+        <v>10.69</v>
+      </c>
+      <c r="F1214">
+        <v>96711.42999999999</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>10.7</v>
+      </c>
+      <c r="C1215">
+        <v>10.71</v>
+      </c>
+      <c r="D1215">
+        <v>10.54</v>
+      </c>
+      <c r="E1215">
+        <v>10.56</v>
+      </c>
+      <c r="F1215">
+        <v>86943.5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>10.56</v>
+      </c>
+      <c r="C1216">
+        <v>10.67</v>
+      </c>
+      <c r="D1216">
+        <v>10.55</v>
+      </c>
+      <c r="E1216">
+        <v>10.67</v>
+      </c>
+      <c r="F1216">
+        <v>99072.08</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>10.67</v>
+      </c>
+      <c r="C1217">
+        <v>10.74</v>
+      </c>
+      <c r="D1217">
+        <v>10.41</v>
+      </c>
+      <c r="E1217">
+        <v>10.47</v>
+      </c>
+      <c r="F1217">
+        <v>221183.21</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>10.46</v>
+      </c>
+      <c r="C1218">
+        <v>10.46</v>
+      </c>
+      <c r="D1218">
+        <v>10.27</v>
+      </c>
+      <c r="E1218">
+        <v>10.3</v>
+      </c>
+      <c r="F1218">
+        <v>218753.58</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>10.29</v>
+      </c>
+      <c r="C1219">
+        <v>10.35</v>
+      </c>
+      <c r="D1219">
+        <v>10.24</v>
+      </c>
+      <c r="E1219">
+        <v>10.25</v>
+      </c>
+      <c r="F1219">
+        <v>142557.4</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>10.26</v>
+      </c>
+      <c r="C1220">
+        <v>10.51</v>
+      </c>
+      <c r="D1220">
+        <v>10.21</v>
+      </c>
+      <c r="E1220">
+        <v>10.5</v>
+      </c>
+      <c r="F1220">
+        <v>246966.18</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>10.49</v>
+      </c>
+      <c r="C1221">
+        <v>10.52</v>
+      </c>
+      <c r="D1221">
+        <v>10.36</v>
+      </c>
+      <c r="E1221">
+        <v>10.4</v>
+      </c>
+      <c r="F1221">
+        <v>126456.66</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>10.4</v>
+      </c>
+      <c r="C1222">
+        <v>10.42</v>
+      </c>
+      <c r="D1222">
+        <v>10.29</v>
+      </c>
+      <c r="E1222">
+        <v>10.31</v>
+      </c>
+      <c r="F1222">
+        <v>121924.97</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>10.32</v>
+      </c>
+      <c r="C1223">
+        <v>10.39</v>
+      </c>
+      <c r="D1223">
+        <v>9.82</v>
+      </c>
+      <c r="E1223">
+        <v>10.19</v>
+      </c>
+      <c r="F1223">
+        <v>542025.48</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>10.19</v>
+      </c>
+      <c r="C1224">
+        <v>10.31</v>
+      </c>
+      <c r="D1224">
+        <v>10.15</v>
+      </c>
+      <c r="E1224">
+        <v>10.25</v>
+      </c>
+      <c r="F1224">
+        <v>155309.17</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>10.25</v>
+      </c>
+      <c r="C1225">
+        <v>10.31</v>
+      </c>
+      <c r="D1225">
+        <v>10.17</v>
+      </c>
+      <c r="E1225">
+        <v>10.19</v>
+      </c>
+      <c r="F1225">
+        <v>104417.88</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>10.2</v>
+      </c>
+      <c r="C1226">
+        <v>10.41</v>
+      </c>
+      <c r="D1226">
+        <v>10.2</v>
+      </c>
+      <c r="E1226">
+        <v>10.26</v>
+      </c>
+      <c r="F1226">
+        <v>208190.12</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>10.27</v>
+      </c>
+      <c r="C1227">
+        <v>10.3</v>
+      </c>
+      <c r="D1227">
+        <v>10.22</v>
+      </c>
+      <c r="E1227">
+        <v>10.22</v>
+      </c>
+      <c r="F1227">
+        <v>97844.3</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>10.22</v>
+      </c>
+      <c r="C1228">
+        <v>10.24</v>
+      </c>
+      <c r="D1228">
+        <v>10.09</v>
+      </c>
+      <c r="E1228">
+        <v>10.12</v>
+      </c>
+      <c r="F1228">
+        <v>143167.84</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>10.12</v>
+      </c>
+      <c r="C1229">
+        <v>10.18</v>
+      </c>
+      <c r="D1229">
+        <v>10.06</v>
+      </c>
+      <c r="E1229">
+        <v>10.11</v>
+      </c>
+      <c r="F1229">
+        <v>171334.26</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>10.11</v>
+      </c>
+      <c r="C1230">
+        <v>10.41</v>
+      </c>
+      <c r="D1230">
+        <v>10.06</v>
+      </c>
+      <c r="E1230">
+        <v>10.4</v>
+      </c>
+      <c r="F1230">
+        <v>390478.22</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>10.39</v>
+      </c>
+      <c r="C1231">
+        <v>10.5</v>
+      </c>
+      <c r="D1231">
+        <v>10.33</v>
+      </c>
+      <c r="E1231">
+        <v>10.34</v>
+      </c>
+      <c r="F1231">
+        <v>190172.8</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>10.34</v>
+      </c>
+      <c r="C1232">
+        <v>10.39</v>
+      </c>
+      <c r="D1232">
+        <v>10.27</v>
+      </c>
+      <c r="E1232">
+        <v>10.29</v>
+      </c>
+      <c r="F1232">
+        <v>126129.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
